--- a/versions/v16/docs/mobile-attack-v16.0/mobile-attack-v16.0-techniques.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.0/mobile-attack-v16.0-techniques.xlsx
@@ -2799,145 +2799,145 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_chameleon_0423),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Check Point-Joker),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: checkpoint_flixonline_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
+    <t>(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: welivesec_strongpity),(Citation: Google Triada June 2019),(Citation: Lookout Desert Scorpion),(Citation: Securelist Asacub),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: kaspersky_fakecalls_0422),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout eSurv),(Citation: Kaspersky-Skygofree),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: BlackBerry Bahamut),(Citation: Wandera-RedDrop),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Dendroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: welivesecurity_ahrat_0523),(Citation: Palo Alto HenBox),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro-RCSAndroid),(Citation: fb_arid_viper),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Zscaler-SpyNote),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: checkpoint_flixonline_0421),(Citation: Lookout-PegasusAndroid),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: CheckPoint SimBad 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler-SpyNote),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Cofense Anubis),(Citation: forcepoint_bitter),(Citation: SecureList BusyGasper),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: kaspersky_fakecalls_0422),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-PegasusAndroid),(Citation: Google Project Zero Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Sophos Red Alert 2.0),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: welivesecurity_ahrat_0523),(Citation: Palo Alto HenBox),(Citation: SecureList - ViceLeaker 2019),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: Securelist Asacub),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Symantec GoldenCup),(Citation: cleafy_brata_0122),(Citation: welivesec_strongpity),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Cofense Anubis),(Citation: Lookout ViperRAT),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender - Triout 2018),(Citation: welivesec_strongpity),(Citation: forcepoint_bitter),(Citation: CyberMerchants-FlexiSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: Symantec GoldenCup),(Citation: Zscaler-SpyNote),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_bouldspy_0423),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Wandera-RedDrop),(Citation: Lookout-EnterpriseApps),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: Zscaler-SuperMarioRun),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),(Citation: FortiGuard-FlexiSpy),(Citation: welivesec_strongpity),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler-SpyNote),(Citation: Microsoft MalLockerB),(Citation: checkpoint_flixonline_0421),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint SimBad 2019),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: mcafee_brata_0421),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: forcepoint_bitter),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: forcepoint_bitter),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: NYTimes-BackDoor),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler-SuperMarioRun),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: SecureList BusyGasper),</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout-Adware),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: Krebs-Triada June 2019),</t>
+    <t>(Citation: NYTimes-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: Google Triada June 2019),(Citation: BankInfoSecurity-BackDoor),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: CheckPoint-Charger),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-PegasusAndroid),(Citation: Google Project Zero Insomnia),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout eSurv),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: Cofense Anubis),(Citation: NYTimes-BackDoor),(Citation: BlackBerry Bahamut),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Meta Adversarial Threat Report 2022),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Monokle),(Citation: Zscaler-SpyNote),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-WUC),(Citation: ThreatFabric Ginp),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: fb_arid_viper),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),</t>
+    <t>(Citation: Securelist Asacub),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Cofense Anubis),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: CheckPoint-Charger),(Citation: welivesec_strongpity),(Citation: forcepoint_bitter),(Citation: CyberMerchants-FlexiSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: proofpoint_flubot_0421),(Citation: Symantec GoldenCup),(Citation: ThreatFabric Ginp),(Citation: Zscaler-SpyNote),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: NYTimes-BackDoor),(Citation: Trend Micro Bouncing Golf 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: kaspersky_fakecalls_0422),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Gooligan Citation),(Citation: Google Project Zero Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Lookout eSurv),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-StealthMango),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: BlackBerry Bahamut),(Citation: securelist_brata_0819),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: Lookout Desert Scorpion),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos Gustuff Apr 2019),(Citation: ThreatFabric Ginp),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro-RCSAndroid),(Citation: fb_arid_viper),(Citation: Trend Micro Anubis),(Citation: Lookout ViperRAT),(Citation: Zscaler-SpyNote),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: Google Security Zen),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cleafy_brata_0122),(Citation: Google Triada June 2019),(Citation: SecureList BusyGasper),(Citation: Lookout eSurv),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: CheckPoint-Judy),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: lookout_bouldspy_0423),(Citation: Lookout FrozenCell),(Citation: Google Bread),(Citation: SecureList DVMap June 2017),(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: Xiao-ZergHelper),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Lookout-BrainTest),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Anubis),(Citation: WhiteOps TERRACOTTA),(Citation: mcafee_brata_0421),(Citation: Lookout ViperRAT),(Citation: Google Security Zen),(Citation: Threat Fabric Cerberus),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),</t>
+    <t>(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Lookout ViperRAT),(Citation: Lookout-Dendroid),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Bitdefender - Triout 2018),(Citation: cyble_drinik_1022),(Citation: Gooligan Citation),(Citation: FlexiSpy-Features),(Citation: Trend Micro Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: Symantec GoldenCup),(Citation: ThreatFabric Ginp),(Citation: Zscaler-SpyNote),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Cylance Dust Storm),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: TrendMicro-Anserver),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: mcafee_brata_0421),(Citation: Google Security Zen),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint-Judy),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Lookout ViperRAT),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Security Zen),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro Anubis),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: SecureList DVMap June 2017),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Lookout-BrainTest),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: Xiao-ZergHelper),(Citation: Lookout FrozenCell),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: Lookout eSurv),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),</t>
+    <t>(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: kaspersky_fakecalls_0422),(Citation: cleafy_brata_0122),(Citation: Zimperium FlyTrap),(Citation: Google Triada June 2019),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: trendmicro_strongpity),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Wandera-RedDrop),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: cyble_drinik_1022),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: cyble_chameleon_0423),(Citation: TrendMicro-XLoader-FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
+    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: trendmicro_strongpity),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender - Triout 2018),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zimperium FlyTrap),(Citation: Wandera-RedDrop),(Citation: Cylance Dust Storm),(Citation: Google Triada June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
     <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky-Skygofree),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: fb_arid_viper),(Citation: Gooligan Citation),(Citation: Lookout-Adware),(Citation: lookout_abstractemu_1021),(Citation: SecureList DVMap June 2017),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Security Zen),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: welivesecurity_ahrat_0523),(Citation: welivesec_strongpity),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Bleeipng Computer Escobar),(Citation: PaloAlto-XcodeGhost),(Citation: checkpoint_flixonline_0421),(Citation: cleafy_brata_0122),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: Trend Micro FlyTrap),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),(Citation: Talos Gustuff Apr 2019),(Citation: ThreatFabric Ginp),(Citation: cyble_chameleon_0423),(Citation: WhiteOps TERRACOTTA),(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Cerberus),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint SimBad 2019),(Citation: checkpoint_flixonline_0421),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-BrainTest),(Citation: Lookout-EnterpriseApps),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Bread),(Citation: CheckPoint-Judy),(Citation: Wandera-RedDrop),(Citation: Gooligan Citation),(Citation: Google Triada June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: CheckPoint Agent Smith),(Citation: Tripwire-MazarBOT),(Citation: Google Security Zen),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList DVMap June 2017),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Google Security Zen),(Citation: Gooligan Citation),(Citation: Volexity Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout-Adware),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Bleeipng Computer Escobar),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Cylance Dust Storm),(Citation: welivesec_strongpity),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: cleafy_brata_0122),(Citation: WhiteOps TERRACOTTA),(Citation: PaloAlto-XcodeGhost),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cyble_drinik_1022),(Citation: trendmicro_tianyspy_0122),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: ThreatFabric Ginp),(Citation: PaloAlto-Xbot),(Citation: checkpoint_flixonline_0421),(Citation: Trend Micro FlyTrap),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: Group IB Gustuff Mar 2019),(Citation: Sophos Red Alert 2.0),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: ArsTechnica-HummingBad),(Citation: Tripwire-MazarBOT),(Citation: CheckPoint Agent Smith),(Citation: Google Security Zen),(Citation: Wandera-RedDrop),(Citation: WhiteOps TERRACOTTA),(Citation: ArsTechnica-HummingWhale),(Citation: Gooligan Citation),(Citation: CheckPoint-Judy),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint SimBad 2019),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: checkpoint_flixonline_0421),(Citation: Google Bread),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-BrainTest),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2949,76 +2949,76 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: fb_arid_viper),(Citation: Wandera-RedDrop),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: Google Security Zen),(Citation: securelist_brata_0819),(Citation: cleafy_sova_1122),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-PegasusAndroid),(Citation: Google Project Zero Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: Cybereason EventBot),(Citation: Trend Micro FlyTrap),(Citation: Wandera-RedDrop),(Citation: lookout_abstractemu_1021),(Citation: Threat Fabric Exobot),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: WhiteOps TERRACOTTA),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: Securelist Asacub),</t>
+    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: fb_arid_viper),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: cleafy_sova_1122),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),(Citation: CheckPoint Cerberus),(Citation: ESET DEFENSOR ID),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),(Citation: trendmicro_tianyspy_0122),(Citation: SWB Exodus March 2019),(Citation: Trend Micro FlyTrap),(Citation: lookout_bouldspy_0423),(Citation: Cybereason EventBot),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: Bleeipng Computer Escobar),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Cofense Anubis),(Citation: BlackBerry Bahamut),(Citation: cleafy_brata_0122),(Citation: securelist_brata_0819),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: CheckPoint-Charger),(Citation: kaspersky_fakecalls_0422),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-EnterpriseApps),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cleafy_brata_0122),(Citation: Google Project Zero Insomnia),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout eSurv),(Citation: Kaspersky-Skygofree),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: Cofense Anubis),(Citation: NYTimes-BackDoor),(Citation: BlackBerry Bahamut),(Citation: Trend Micro FlyTrap),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-Monokle),(Citation: CrowdStrike-Android),(Citation: Lookout FrozenCell),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: SecureList - ViceLeaker 2019),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Zscaler-SpyNote),(Citation: Threat Fabric Cerberus),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: kaspersky_fakecalls_0422),(Citation: blackberry_mobile_malware_apt_esp),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Microsoft MalLockerB),(Citation: sophos_android_apt_spyware),(Citation: trendmicro_strongpity),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cofense Anubis),(Citation: securelist_brata_0819),(Citation: Forbes Cerberus),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Exobot),(Citation: checkpoint_hamas_android_malware),(Citation: Sophos Red Alert 2.0),(Citation: welivesecurity_apt-c-23),(Citation: lookout_bouldspy_0423),(Citation: CrowdStrike-Android),(Citation: Lookout FrozenCell),(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: CheckPoint Agent Smith),(Citation: SecureList - ViceLeaker 2019),(Citation: ThreatFabric Ginp),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint SimBad 2019),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: MoustachedBouncer ESET August 2023),(Citation: fb_arid_viper),(Citation: forcepoint_bitter),(Citation: Trend Micro Anubis),(Citation: Proofpoint-Droidjack),(Citation: mcafee_brata_0421),(Citation: Lookout ViperRAT),(Citation: Securelist Asacub),(Citation: TrendMicro-XLoader-FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: Securelist Asacub),</t>
+    <t>(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: Cofense Anubis),(Citation: lookout_bouldspy_0423),(Citation: securelist_brata_0819),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky-WUC),(Citation: CheckPoint-Charger),(Citation: Bitdefender - Triout 2018),(Citation: welivesec_strongpity),(Citation: CyberMerchants-FlexiSpy),(Citation: CrowdStrike-Android),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Zscaler-SpyNote),(Citation: Trend Micro FlyTrap),(Citation: lookout_bouldspy_0423),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: NYTimes-BackDoor),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: welivesecurity_apt-c-23),(Citation: Lookout Uyghur Campaign),(Citation: Proofpoint-Droidjack),(Citation: trendmicro_strongpity),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: forcepoint_bitter),(Citation: MoustachedBouncer ESET August 2023),(Citation: CrowdStrike-Android),(Citation: Trend Micro Anubis),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: fb_arid_viper),(Citation: mcafee_brata_0421),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: Microsoft MalLockerB),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Forbes Cerberus),(Citation: Lookout FrozenCell),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: sophos_android_apt_spyware),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: lookout_hornbill_sunbird_0221),(Citation: CheckPoint SimBad 2019),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: cyble_chameleon_0423),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint-Charger),(Citation: Volexity Insomnia),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro-Obad),(Citation: Microsoft MalLockerB),(Citation: cleafy_brata_0122),(Citation: Check Point-Joker),(Citation: SecurityIntelligence TrickMo),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Sophos Red Alert 2.0),(Citation: cyble_drinik_1022),(Citation: TrendMicro-XLoader),(Citation: securelist rotexy 2018),(Citation: Lookout-Monokle),(Citation: Google Bread),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList DVMap June 2017),(Citation: Talos GPlayed),(Citation: PaloAlto-WireLurker),(Citation: Palo Alto HenBox),(Citation: Talos Gustuff Apr 2019),(Citation: ThreatFabric Ginp),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Lookout-BrainTest),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: trendmicro_tianyspy_0122),(Citation: mcafee_brata_0421),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),</t>
+    <t>(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-WireLurker),(Citation: Check Point-Joker),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro-XLoader),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: CheckPoint-Charger),(Citation: cyble_drinik_1022),(Citation: Volexity Insomnia),(Citation: welivesec_strongpity),(Citation: trendmicro_tianyspy_0122),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: SecureList DVMap June 2017),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: mcafee_brata_0421),(Citation: ThreatFabric Ginp),(Citation: Microsoft MalLockerB),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-BrainTest),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-Obad),(Citation: Sophos Red Alert 2.0),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: Meta Adversarial Threat Report 2022),(Citation: blackberry_mobile_malware_apt_esp),(Citation: securelist_brata_0819),(Citation: sophos_android_apt_spyware),(Citation: Leonard TAG 2023),(Citation: checkpoint_hamas_android_malware),(Citation: CitizenLab Great iPwn),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: paloalto_yispecter_1015),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Kaspersky-WUC),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-PegasusAndroid),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: blackberry_mobile_malware_apt_esp),(Citation: sophos_android_apt_spyware),(Citation: CitizenLab Great iPwn),(Citation: Leonard TAG 2023),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: Meta Adversarial Threat Report 2022),(Citation: checkpoint_hamas_android_malware),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: securelist rotexy 2018),</t>
   </si>
   <si>
     <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),</t>
+    <t>(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Bleeipng Computer Escobar),(Citation: SecurityIntelligence TrickMo),(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-StealthMango),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: ThreatFabric Ginp),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: kaspersky_fakecalls_0422),(Citation: Kaspersky Triada March 2016),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-EnterpriseApps),(Citation: FlexiSpy-Features),(Citation: Google Project Zero Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason EventBot),(Citation: FireEye-RuMMS),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: NYTimes-BackDoor),(Citation: BlackBerry Bahamut),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-XLoader),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Meta Adversarial Threat Report 2022),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler-SpyNote),(Citation: Lookout FrozenCell),(Citation: Google Bread),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: SecureList - ViceLeaker 2019),(Citation: Tripwire-MazarBOT),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-WUC),(Citation: ThreatFabric Ginp),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro-RCSAndroid),(Citation: fb_arid_viper),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),</t>
+    <t>(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Exobot),(Citation: cyble_drinik_1022),(Citation: forcepoint_bitter),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader),(Citation: Kaspersky-WUC),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: forcepoint_bitter),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Symantec GoldenCup),(Citation: ThreatFabric Ginp),(Citation: Zscaler-SpyNote),(Citation: PaloAlto-Xbot),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: NYTimes-BackDoor),(Citation: Tripwire-MazarBOT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Cylance Dust Storm),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky Triada March 2016),(Citation: Zscaler-SuperMarioRun),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
@@ -3027,73 +3027,73 @@
     <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),</t>
   </si>
   <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: FlexiSpy-Features),(Citation: cleafy_sova_1122),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: securelist_brata_0819),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: welivesecurity_ahrat_0523),(Citation: ESET DEFENSOR ID),(Citation: ThreatFabric Ginp),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: mcafee_brata_0421),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: FlexiSpy-Features),(Citation: Lookout-PegasusAndroid),(Citation: Google Triada June 2019),(Citation: cleafy_sova_1122),(Citation: Google Project Zero Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-StealthMango),(Citation: Cybereason EventBot),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Monokle),(Citation: Talos GPlayed),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: CheckPoint Agent Smith),(Citation: SecureList - ViceLeaker 2019),(Citation: ThreatFabric Ginp),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links),(Citation: IETF-PKCE)</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: ESET DEFENSOR ID),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: mcafee_brata_0421),(Citation: ThreatFabric Ginp),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: cleafy_sova_1122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: securelist_brata_0819),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Cofense Anubis),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesec_strongpity),(Citation: FlexiSpy-Features),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: cleafy_sova_1122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>,(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links),(Citation: Android App Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: Lookout-PegasusAndroid),(Citation: Zimperium FlyTrap),(Citation: cleafy_sova_1122),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender Mandrake),(Citation: Lookout-Pegasus),(Citation: Trend Micro FlyTrap),(Citation: Lookout Desert Scorpion),(Citation: lookout_bouldspy_0423),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout FrozenCell),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: mandiant_apt44_unearthing_sandworm),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FortiGuard-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: threatfabric_sova_0921),(Citation: SWB Exodus March 2019),(Citation: checkpoint_flixonline_0421),(Citation: Meta Adversarial Threat Report 2022),(Citation: Trend Micro FlyTrap),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: Lookout FrozenCell),(Citation: cleafy_sova_1122),(Citation: Bleeipng Computer Escobar),(Citation: Zimperium FlyTrap),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: mandiant_apt44_unearthing_sandworm),</t>
   </si>
   <si>
     <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
-    <t>(Citation: checkpoint_flixonline_0421),(Citation: ESET-Twitoor),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Desert Scorpion),(Citation: cyble_drinik_1022),(Citation: securelist rotexy 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint SimBad 2019),(Citation: Bitdefender - Triout 2018),(Citation: Threat Fabric Cerberus),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason FakeSpy),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: Trend Micro Anubis),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Palo Alto HenBox),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Project Zero Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Lookout eSurv),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason EventBot),(Citation: FireEye-RuMMS),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Pegasus),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cofense Anubis),(Citation: BlackBerry Bahamut),(Citation: Wandera-RedDrop),(Citation: securelist_brata_0819),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: Lookout Desert Scorpion),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList DVMap June 2017),(Citation: Talos GPlayed),(Citation: Xiao-KeyRaider),(Citation: TrendMicro-Anserver2),(Citation: Palo Alto HenBox),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-WUC),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: Symantec GoldenCup),(Citation: fb_arid_viper),(Citation: CheckPoint Cerberus),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-PegasusAndroid),(Citation: Google Project Zero Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason EventBot),(Citation: Trend Micro FlyTrap),(Citation: Wandera-RedDrop),(Citation: lookout_abstractemu_1021),(Citation: Threat Fabric Exobot),(Citation: checkpoint_hamas_android_malware),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: PaloAlto-DualToy),(Citation: Google Bread),(Citation: Talos GPlayed),(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: forcepoint_bitter),(Citation: WhiteOps TERRACOTTA),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: Securelist Asacub),(Citation: FireEye-RuMMS),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: FlexiSpy-Features),(Citation: Lookout Dark Caracal Jan 2018),(Citation: trendmicro_strongpity),(Citation: Lookout ViperRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: ESET-Twitoor),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender - Triout 2018),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: threatfabric_sova_0921),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint SimBad 2019),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Anubis),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Cofense Anubis),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Kaspersky-WUC),(Citation: Xiao-KeyRaider),(Citation: welivesec_strongpity),(Citation: CheckPoint Cerberus),(Citation: trendmicro_tianyspy_0122),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: SecureList DVMap June 2017),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: fb_arid_viper),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-Anserver2),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-DualToy),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: securelist rotexy 2018),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Kaspersky Riltok June 2019),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: forcepoint_bitter),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Trend Micro FlyTrap),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: TrendMicro-Anserver2),(Citation: Wandera-RedDrop),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: trendmicro_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Palo Alto HenBox),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: securelist_brata_0819),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: kaspersky_fakecalls_0422),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky-Skygofree),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro-RCSAndroid),(Citation: fb_arid_viper),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: forcepoint_bitter),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: Symantec GoldenCup),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler-SuperMarioRun),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: Volexity Insomnia),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky-MobileMalware),(Citation: cleafy_brata_0122),(Citation: Zimperium FlyTrap),(Citation: SecurityIntelligence TrickMo),(Citation: proofpoint_flubot_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Cybereason FakeSpy),(Citation: Kaspersky-Skygofree),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky Riltok June 2019),(Citation: Google Bread),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: ESET DEFENSOR ID),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-WUC),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: CheckPoint Cerberus),(Citation: Securelist Asacub),(Citation: FireEye-RuMMS),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: Google Project Zero Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: TelephonyManager)</t>
+    <t>(Citation: Securelist Asacub),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky-WUC),(Citation: Bitdefender - Triout 2018),(Citation: Volexity Insomnia),(Citation: welivesec_strongpity),(Citation: CheckPoint Cerberus),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-MobileMalware),(Citation: SWB Exodus March 2019),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: FireEye-RuMMS),(Citation: Zimperium FlyTrap),(Citation: Wandera-RedDrop),(Citation: Sophos Red Alert 2.0),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: trendmicro_tianyspy_0122),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v16/docs/mobile-attack-v16.0/mobile-attack-v16.0-techniques.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.0/mobile-attack-v16.0-techniques.xlsx
@@ -2799,52 +2799,52 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: checkpoint_flixonline_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: Check Point-Joker),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
   </si>
   <si>
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: Securelist Asacub),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Symantec GoldenCup),(Citation: cleafy_brata_0122),(Citation: welivesec_strongpity),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cofense Anubis),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Cofense Anubis),(Citation: Lookout ViperRAT),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender - Triout 2018),(Citation: welivesec_strongpity),(Citation: forcepoint_bitter),(Citation: CyberMerchants-FlexiSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: Symantec GoldenCup),(Citation: Zscaler-SpyNote),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_bouldspy_0423),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Wandera-RedDrop),(Citation: Lookout-EnterpriseApps),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: Zscaler-SuperMarioRun),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),(Citation: FortiGuard-FlexiSpy),(Citation: welivesec_strongpity),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler-SpyNote),(Citation: Microsoft MalLockerB),(Citation: checkpoint_flixonline_0421),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint SimBad 2019),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: mcafee_brata_0421),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: forcepoint_bitter),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: forcepoint_bitter),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: NYTimes-BackDoor),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler-SuperMarioRun),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: Google Triada June 2019),(Citation: cleafy_brata_0122),(Citation: lookout_bouldspy_0423),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Lookout eSurv),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: welivesec_strongpity),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Pegasus),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-PegasusAndroid),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: CyberMerchants-FlexiSpy),(Citation: forcepoint_bitter),(Citation: Kaspersky-Skygofree),(Citation: Wandera-RedDrop),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Threat Fabric Exobot),(Citation: Zscaler-SpyNote),(Citation: welivesec_strongpity),(Citation: SecurityIntelligence TrickMo),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint SimBad 2019),(Citation: checkpoint_flixonline_0421),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: Cybereason EventBot),(Citation: Microsoft MalLockerB),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: kaspersky_fakecalls_0422),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-StealthMango),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-PegasusAndroid),(Citation: NYTimes-BackDoor),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: lookout_bouldspy_0423),(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: Sophos Red Alert 2.0),(Citation: forcepoint_bitter),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: paloalto_yispecter_1015),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
@@ -2853,19 +2853,19 @@
     <t>(Citation: paloalto_yispecter_1015),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout-Adware),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
-  </si>
-  <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: Google Triada June 2019),(Citation: BankInfoSecurity-BackDoor),</t>
+    <t>(Citation: SecureList BusyGasper),(Citation: Lookout-Adware),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: HackerNews-Allwinner),(Citation: NYTimes-BackDoor),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: Securelist Asacub),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Pegasus),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Cofense Anubis),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-WUC),(Citation: CheckPoint-Charger),(Citation: welivesec_strongpity),(Citation: forcepoint_bitter),(Citation: CyberMerchants-FlexiSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: proofpoint_flubot_0421),(Citation: Symantec GoldenCup),(Citation: ThreatFabric Ginp),(Citation: Zscaler-SpyNote),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: NYTimes-BackDoor),(Citation: Trend Micro Bouncing Golf 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),</t>
+    <t>(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Lookout eSurv),(Citation: Threat Fabric Exobot),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: welivesec_strongpity),(Citation: Symantec GoldenCup),(Citation: Kaspersky Riltok June 2019),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: NYTimes-BackDoor),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint-Charger),(Citation: PaloAlto-SpyDealer),(Citation: Threat Fabric Cerberus),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_bouldspy_0423),(Citation: proofpoint_flubot_0421),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: cloudmark_tanglebot_0921),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: CyberMerchants-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
@@ -2874,70 +2874,70 @@
     <t>(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Lookout ViperRAT),(Citation: Lookout-Dendroid),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Bitdefender - Triout 2018),(Citation: cyble_drinik_1022),(Citation: Gooligan Citation),(Citation: FlexiSpy-Features),(Citation: Trend Micro Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: Symantec GoldenCup),(Citation: ThreatFabric Ginp),(Citation: Zscaler-SpyNote),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Cylance Dust Storm),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: TrendMicro-Anserver),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: GoogleIO2016)</t>
+    <t>(Citation: Palo Alto HenBox),(Citation: Lookout eSurv),(Citation: SecureList BusyGasper),(Citation: Cylance Dust Storm),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: Gooligan Citation),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: Talos GPlayed),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Bitdefender - Triout 2018),(Citation: FlexiSpy-Features),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),(Citation: Trend Micro Anubis),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_bouldspy_0423),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: cloudmark_tanglebot_0921),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
   </si>
   <si>
     <t>(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: mcafee_brata_0421),(Citation: Google Security Zen),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint-Judy),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Lookout ViperRAT),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Security Zen),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro Anubis),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: SecureList DVMap June 2017),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Lookout-BrainTest),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: Xiao-ZergHelper),(Citation: Lookout FrozenCell),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: Lookout eSurv),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),</t>
+    <t>(Citation: cleafy_brata_0122),(Citation: cyble_chameleon_0423),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: Lookout eSurv),(Citation: SecureList BusyGasper),(Citation: Google Bread),(Citation: Symantec GoldenCup),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: cyble_chameleon_0423),(Citation: mcafee_brata_0421),(Citation: WhiteOps TERRACOTTA),(Citation: TrendMicro-RCSAndroid),(Citation: paloalto_yispecter_1015),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint-Judy),(Citation: Threat Fabric Cerberus),(Citation: SecureList DVMap June 2017),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-BrainTest),(Citation: Trend Micro Anubis),(Citation: Talos-WolfRAT),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: BlackBerry Bahamut),(Citation: Xiao-ZergHelper),(Citation: Sophos Red Alert 2.0),(Citation: Google Security Zen),(Citation: Kaspersky-Skygofree),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),(Citation: Lookout-Pegasus),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),</t>
+    <t>(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: trendmicro_strongpity),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender - Triout 2018),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zimperium FlyTrap),(Citation: Wandera-RedDrop),(Citation: Cylance Dust Storm),(Citation: Google Triada June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
+    <t>(Citation: Google Triada June 2019),(Citation: cleafy_brata_0122),(Citation: Lookout eSurv),(Citation: kaspersky_fakecalls_0422),(Citation: Cylance Dust Storm),(Citation: welivesec_strongpity),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: Zimperium FlyTrap),(Citation: welivesecurity_ahrat_0523),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: trendmicro_strongpity),(Citation: Wandera-RedDrop),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
   </si>
   <si>
     <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList DVMap June 2017),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-Skygofree),(Citation: Google Security Zen),(Citation: Gooligan Citation),(Citation: Volexity Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout-Adware),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Bleeipng Computer Escobar),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Cylance Dust Storm),(Citation: welivesec_strongpity),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: cleafy_brata_0122),(Citation: WhiteOps TERRACOTTA),(Citation: PaloAlto-XcodeGhost),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cyble_drinik_1022),(Citation: trendmicro_tianyspy_0122),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: ThreatFabric Ginp),(Citation: PaloAlto-Xbot),(Citation: checkpoint_flixonline_0421),(Citation: Trend Micro FlyTrap),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: Group IB Gustuff Mar 2019),(Citation: Sophos Red Alert 2.0),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: ArsTechnica-HummingBad),(Citation: Tripwire-MazarBOT),(Citation: CheckPoint Agent Smith),(Citation: Google Security Zen),(Citation: Wandera-RedDrop),(Citation: WhiteOps TERRACOTTA),(Citation: ArsTechnica-HummingWhale),(Citation: Gooligan Citation),(Citation: CheckPoint-Judy),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint SimBad 2019),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: checkpoint_flixonline_0421),(Citation: Google Bread),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-BrainTest),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),</t>
+    <t>(Citation: ArsTechnica-HummingBad),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Adware),(Citation: Volexity Insomnia),(Citation: fb_arid_viper),(Citation: lookout_abstractemu_1021),(Citation: Gooligan Citation),(Citation: Google Security Zen),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),(Citation: Lookout-BrainTest),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: Talos-WolfRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),(Citation: welivesec_strongpity),(Citation: welivesecurity_ahrat_0523),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Group IB Gustuff Mar 2019),(Citation: Threat Fabric Exobot),(Citation: Trend Micro FlyTrap),(Citation: Kaspersky Riltok June 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: threatfabric_sova_0921),(Citation: trendmicro_tianyspy_0122),(Citation: cyble_chameleon_0423),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),(Citation: securelist rotexy 2018),(Citation: checkpoint_flixonline_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: proofpoint_flubot_0421),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Dendroid),(Citation: PaloAlto-XcodeGhost),(Citation: cyble_drinik_1022),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: Lookout-EnterpriseApps),(Citation: ArsTechnica-HummingBad),(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint-Judy),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),(Citation: Tripwire-MazarBOT),(Citation: Gooligan Citation),(Citation: Google Security Zen),(Citation: Kaspersky Triada June 2016),(Citation: CheckPoint SimBad 2019),(Citation: Lookout-BrainTest),(Citation: checkpoint_flixonline_0421),(Citation: Wandera-RedDrop),(Citation: CheckPoint Agent Smith),(Citation: WeLiveSecurity AdDisplayAshas),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2949,151 +2949,151 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: fb_arid_viper),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: lookout_abstractemu_1021),(Citation: welivesec_strongpity),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),</t>
   </si>
   <si>
     <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: cleafy_sova_1122),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),(Citation: CheckPoint Cerberus),(Citation: ESET DEFENSOR ID),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),(Citation: trendmicro_tianyspy_0122),(Citation: SWB Exodus March 2019),(Citation: Trend Micro FlyTrap),(Citation: lookout_bouldspy_0423),(Citation: Cybereason EventBot),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),</t>
+    <t>(Citation: mcafee_brata_0421),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: cleafy_sova_1122),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: securelist_brata_0819),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: trendmicro_tianyspy_0122),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: Cofense Anubis),(Citation: lookout_bouldspy_0423),(Citation: securelist_brata_0819),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky-WUC),(Citation: CheckPoint-Charger),(Citation: Bitdefender - Triout 2018),(Citation: welivesec_strongpity),(Citation: CyberMerchants-FlexiSpy),(Citation: CrowdStrike-Android),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Zscaler-SpyNote),(Citation: Trend Micro FlyTrap),(Citation: lookout_bouldspy_0423),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Lookout FrozenCell),(Citation: NYTimes-BackDoor),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: CSRIC5-WG10-FinalReport)</t>
+    <t>(Citation: cleafy_brata_0122),(Citation: cyble_chameleon_0423),(Citation: mcafee_brata_0421),(Citation: lookout_bouldspy_0423),(Citation: Threat Fabric Cerberus),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Exobot),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),(Citation: nccgroup_sharkbot_0322),(Citation: FlexiSpy-Features),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Lookout eSurv),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: welivesec_strongpity),(Citation: Symantec GoldenCup),(Citation: Trend Micro FlyTrap),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Pegasus),(Citation: CrowdStrike-Android),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-StealthMango),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Bitdefender - Triout 2018),(Citation: NYTimes-BackDoor),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint-Charger),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Threat Fabric Cerberus),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: lookout_bouldspy_0423),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: cloudmark_tanglebot_0921),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CSRIC5-WG10-FinalReport)</t>
   </si>
   <si>
     <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
   </si>
   <si>
-    <t>(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: welivesecurity_apt-c-23),(Citation: Lookout Uyghur Campaign),(Citation: Proofpoint-Droidjack),(Citation: trendmicro_strongpity),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: forcepoint_bitter),(Citation: MoustachedBouncer ESET August 2023),(Citation: CrowdStrike-Android),(Citation: Trend Micro Anubis),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: fb_arid_viper),(Citation: mcafee_brata_0421),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: Microsoft MalLockerB),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Forbes Cerberus),(Citation: Lookout FrozenCell),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: sophos_android_apt_spyware),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: lookout_hornbill_sunbird_0221),(Citation: CheckPoint SimBad 2019),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),</t>
+    <t>(Citation: Palo Alto HenBox),(Citation: Threat Fabric Exobot),(Citation: kaspersky_fakecalls_0422),(Citation: MoustachedBouncer ESET August 2023),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: lookout_hornbill_sunbird_0221),(Citation: CrowdStrike-Android),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: mcafee_brata_0421),(Citation: fb_arid_viper),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: checkpoint_hamas_android_malware),(Citation: CheckPoint SimBad 2019),(Citation: Lookout FrozenCell),(Citation: Forbes Cerberus),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: securelist_brata_0819),(Citation: Trend Micro Anubis),(Citation: Talos-WolfRAT),(Citation: sophos_android_apt_spyware),(Citation: Cybereason EventBot),(Citation: Microsoft MalLockerB),(Citation: lookout_bouldspy_0423),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-Dendroid),(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Droidjack),(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: trendmicro_strongpity),(Citation: welivesecurity_apt-c-23),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-WireLurker),(Citation: Check Point-Joker),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro-XLoader),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: CheckPoint-Charger),(Citation: cyble_drinik_1022),(Citation: Volexity Insomnia),(Citation: welivesec_strongpity),(Citation: trendmicro_tianyspy_0122),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: SecureList DVMap June 2017),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: mcafee_brata_0421),(Citation: ThreatFabric Ginp),(Citation: Microsoft MalLockerB),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-BrainTest),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-Obad),(Citation: Sophos Red Alert 2.0),</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: CheckPoint Cerberus),(Citation: Volexity Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: Google Bread),(Citation: welivesec_strongpity),(Citation: Check Point-Joker),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: mcafee_brata_0421),(Citation: Volexity Insomnia),(Citation: WhiteOps TERRACOTTA),(Citation: TrendMicro-Obad),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader),(Citation: CheckPoint-Charger),(Citation: FortiGuard-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: SecureList DVMap June 2017),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-WireLurker),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-BrainTest),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Microsoft MalLockerB),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: Sophos Red Alert 2.0),(Citation: Google Security Zen),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Kaspersky-WUC),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-PegasusAndroid),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: blackberry_mobile_malware_apt_esp),(Citation: sophos_android_apt_spyware),(Citation: CitizenLab Great iPwn),(Citation: Leonard TAG 2023),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: Meta Adversarial Threat Report 2022),(Citation: checkpoint_hamas_android_malware),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: securelist rotexy 2018),</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Pegasus),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: blackberry_mobile_malware_apt_esp),(Citation: Meta Adversarial Threat Report 2022),(Citation: checkpoint_hamas_android_malware),(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: Leonard TAG 2023),(Citation: sophos_android_apt_spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: bitdefender_flubot_0524),(Citation: cyble_chameleon_0423),(Citation: TrendMicro-Obad),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: paloalto_yispecter_1015),(Citation: Talos-WolfRAT),(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
     <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Exobot),(Citation: cyble_drinik_1022),(Citation: forcepoint_bitter),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader),(Citation: Kaspersky-WUC),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: forcepoint_bitter),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Symantec GoldenCup),(Citation: ThreatFabric Ginp),(Citation: Zscaler-SpyNote),(Citation: PaloAlto-Xbot),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: NYTimes-BackDoor),(Citation: Tripwire-MazarBOT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Cylance Dust Storm),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky Triada March 2016),(Citation: Zscaler-SuperMarioRun),</t>
+    <t>(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Cerberus),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: proofpoint_flubot_0421),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: cyble_drinik_1022),(Citation: Sophos Red Alert 2.0),(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: Cylance Dust Storm),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SpyNote),(Citation: Google Bread),(Citation: welivesec_strongpity),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-Xbot),(Citation: securelist rotexy 2018),(Citation: NYTimes-BackDoor),(Citation: FlexiSpy-Features),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-XLoader),(Citation: Threat Fabric Cerberus),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Triada March 2016),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Tripwire-MazarBOT),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: proofpoint_flubot_0421),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: FireEye-RuMMS),(Citation: BlackBerry Bahamut),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: CyberMerchants-FlexiSpy),(Citation: Meta Adversarial Threat Report 2022),(Citation: Sophos Red Alert 2.0),(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: ESET DEFENSOR ID),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: mcafee_brata_0421),(Citation: ThreatFabric Ginp),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: cleafy_sova_1122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: securelist_brata_0819),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Cofense Anubis),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesec_strongpity),(Citation: FlexiSpy-Features),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: cleafy_sova_1122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>,(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links),(Citation: Android App Links)</t>
+    <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: mcafee_brata_0421),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: cleafy_sova_1122),(Citation: FlexiSpy-Features),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: securelist_brata_0819),(Citation: Talos-WolfRAT),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: Palo Alto HenBox),(Citation: welivesec_strongpity),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: paloalto_yispecter_1015),(Citation: ESET DEFENSOR ID),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Cerberus),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint Agent Smith),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FortiGuard-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: threatfabric_sova_0921),(Citation: SWB Exodus March 2019),(Citation: checkpoint_flixonline_0421),(Citation: Meta Adversarial Threat Report 2022),(Citation: Trend Micro FlyTrap),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: Lookout FrozenCell),(Citation: cleafy_sova_1122),(Citation: Bleeipng Computer Escobar),(Citation: Zimperium FlyTrap),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: mandiant_apt44_unearthing_sandworm),</t>
+    <t>(Citation: SecureList BusyGasper),(Citation: Trend Micro FlyTrap),(Citation: Bitdefender Mandrake),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: mandiant_apt44_unearthing_sandworm),(Citation: threatfabric_sova_0921),(Citation: Lookout-StealthMango),(Citation: Zimperium FlyTrap),(Citation: TrendMicro-RCSAndroid),(Citation: cleafy_sova_1122),(Citation: Lookout-PegasusAndroid),(Citation: paloalto_yispecter_1015),(Citation: checkpoint_flixonline_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: FortiGuard-FlexiSpy),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: lookout_bouldspy_0423),(Citation: Meta Adversarial Threat Report 2022),(Citation: Kaspersky-Skygofree),</t>
   </si>
   <si>
     <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: ESET-Twitoor),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender - Triout 2018),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: threatfabric_sova_0921),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint SimBad 2019),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Anubis),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Cofense Anubis),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Kaspersky-WUC),(Citation: Xiao-KeyRaider),(Citation: welivesec_strongpity),(Citation: CheckPoint Cerberus),(Citation: trendmicro_tianyspy_0122),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: SecureList DVMap June 2017),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: fb_arid_viper),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-Anserver2),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout eSurv),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-DualToy),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: securelist rotexy 2018),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Kaspersky Riltok June 2019),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: forcepoint_bitter),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Trend Micro FlyTrap),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: TrendMicro-Anserver2),(Citation: Wandera-RedDrop),(Citation: Lookout-EnterpriseApps),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: trendmicro_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: forcepoint_bitter),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos-WolfRAT),(Citation: BlackBerry Bahamut),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: Symantec GoldenCup),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler-SuperMarioRun),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Group IB Gustuff Mar 2019),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender - Triout 2018),(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: CheckPoint SimBad 2019),(Citation: checkpoint_flixonline_0421),(Citation: paloalto_yispecter_1015),(Citation: Lookout Desert Scorpion),(Citation: FortiGuard-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: Cybereason FakeSpy),(Citation: ESET-Twitoor),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: ThreatFabric Ginp),(Citation: CheckPoint Agent Smith),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: welivesec_strongpity),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: Cybereason FakeSpy),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Anubis),(Citation: Talos-WolfRAT),(Citation: WeLiveSecurity AdDisplayAshas),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: CheckPoint Cerberus),(Citation: Lookout eSurv),(Citation: Threat Fabric Exobot),(Citation: welivesec_strongpity),(Citation: Symantec GoldenCup),(Citation: TrendMicro-Anserver2),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Talos GPlayed),(Citation: Bitdefender Mandrake),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Pegasus),(Citation: threatfabric_sova_0921),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: securelist rotexy 2018),(Citation: paloalto_yispecter_1015),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Xiao-KeyRaider),(Citation: Threat Fabric Cerberus),(Citation: SecureList DVMap June 2017),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: securelist_brata_0819),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-DualToy),(Citation: Threat Fabric Exobot),(Citation: Google Bread),(Citation: Symantec GoldenCup),(Citation: TrendMicro-Anserver2),(Citation: Trend Micro FlyTrap),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Talos GPlayed),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: paloalto_yispecter_1015),(Citation: Lookout FrozenCell),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: Lookout-Monokle),(Citation: forcepoint_bitter),(Citation: Wandera-RedDrop),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: SecurityIntelligence TrickMo),(Citation: securelist_brata_0819),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: kaspersky_fakecalls_0422),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: lookout_bouldspy_0423),(Citation: cloudmark_tanglebot_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: CyberMerchants-FlexiSpy),(Citation: forcepoint_bitter),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Securelist Asacub),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky-WUC),(Citation: Bitdefender - Triout 2018),(Citation: Volexity Insomnia),(Citation: welivesec_strongpity),(Citation: CheckPoint Cerberus),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-MobileMalware),(Citation: SWB Exodus March 2019),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: FireEye-RuMMS),(Citation: Zimperium FlyTrap),(Citation: Wandera-RedDrop),(Citation: Sophos Red Alert 2.0),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: trendmicro_tianyspy_0122),(Citation: TelephonyManager)</t>
+    <t>(Citation: cleafy_brata_0122),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Exobot),(Citation: Google Bread),(Citation: welivesec_strongpity),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: Volexity Insomnia),(Citation: Zimperium FlyTrap),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky-MobileMalware),(Citation: Bitdefender - Triout 2018),(Citation: securelist rotexy 2018),(Citation: paloalto_yispecter_1015),(Citation: ESET DEFENSOR ID),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro Coronavirus Updates),(Citation: FireEye-RuMMS),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-Skygofree),(Citation: Wandera-RedDrop),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-PegasusAndroid),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: trendmicro_tianyspy_0122),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>
